--- a/trunk/material/card.xlsx
+++ b/trunk/material/card.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="21375" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="21375" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dps" sheetId="1" r:id="rId1"/>
     <sheet name="tank" sheetId="2" r:id="rId2"/>
     <sheet name="heal" sheetId="3" r:id="rId3"/>
     <sheet name="other" sheetId="4" r:id="rId4"/>
+    <sheet name="武器" sheetId="5" r:id="rId5"/>
+    <sheet name="防具" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="139">
   <si>
     <t>费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,13 +377,162 @@
   <si>
     <t>联盟方获得加1生命，部落获得加一攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你使用上古骨弓进行打击时，你的英雄在此次战斗中具有远程攻击（防御者不会对你造成战斗伤害）。</t>
+  </si>
+  <si>
+    <t>使用费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古骨弓</t>
+  </si>
+  <si>
+    <t>歼灭者</t>
+  </si>
+  <si>
+    <t>你得英雄使用歼灭者造成的战斗伤害不能被防止</t>
+  </si>
+  <si>
+    <t>奥金斧</t>
+  </si>
+  <si>
+    <t>7 </t>
+  </si>
+  <si>
+    <t>银色十字军</t>
+  </si>
+  <si>
+    <t>在你的回合开始时，你与目标对手各抓一张牌。</t>
+  </si>
+  <si>
+    <t>酒吧凶器</t>
+  </si>
+  <si>
+    <t>当你英雄攻击任一横置英雄或盟军时，酒吧凶器得到+2攻击力。</t>
+  </si>
+  <si>
+    <t>碎灵</t>
+  </si>
+  <si>
+    <t>4 </t>
+  </si>
+  <si>
+    <t>当你的英雄使用碎灵对任一英雄造成战斗伤害时，该英雄操控者弃一张牌。</t>
+  </si>
+  <si>
+    <t>大坏蛋面具</t>
+  </si>
+  <si>
+    <t>在每个牌手回合开始时，该牌手弃一张牌。</t>
+  </si>
+  <si>
+    <t>多彩披风</t>
+  </si>
+  <si>
+    <t>若你的英雄将使用技能造成伤害时，改为它造成同等数量+1的伤害。</t>
+  </si>
+  <si>
+    <t>死灵胸甲</t>
+  </si>
+  <si>
+    <t>你的武器得到+2攻击力。</t>
+  </si>
+  <si>
+    <t>魔暴龙皮护腿</t>
+  </si>
+  <si>
+    <t>3  </t>
+  </si>
+  <si>
+    <t>当你的英雄对任一盟军造成战斗伤害时，消灭该盟军。</t>
+  </si>
+  <si>
+    <t>tank dps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙人之盾</t>
+  </si>
+  <si>
+    <t>你的英雄具有护卫。</t>
+  </si>
+  <si>
+    <t>tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑师护手</t>
+  </si>
+  <si>
+    <t>你使用武器打击时少支付①。</t>
+  </si>
+  <si>
+    <t>雷德之眼</t>
+  </si>
+  <si>
+    <t>你的武器得到+1攻击力。</t>
+  </si>
+  <si>
+    <t>乌瑟尔的腰带</t>
+  </si>
+  <si>
+    <t>④，横置→重置你的英雄和你一件近战武器</t>
+  </si>
+  <si>
+    <t>石颅头盔</t>
+  </si>
+  <si>
+    <t>dps healer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提米的手</t>
+  </si>
+  <si>
+    <t>当你的英雄使用提米的手对任一英雄造成战斗伤害时，该英雄操控者消灭他的一个资源</t>
+  </si>
+  <si>
+    <t>命运</t>
+  </si>
+  <si>
+    <t>当你的英雄使用命运造成战斗伤害时，在命运上放置一个力量示物。命运上每有一个力量示物，他便得到+1攻击力。</t>
+  </si>
+  <si>
+    <t>矮人手持火炮</t>
+  </si>
+  <si>
+    <t>当你使用矮人手持火炮进行打击时，你的英雄在此次战斗中具有远程攻击（防御者不会对你造成战斗伤害）。②→矮人手持火炮本回合得到+1攻击力。</t>
+  </si>
+  <si>
+    <t>精灵法师的礼物</t>
+  </si>
+  <si>
+    <t>②，横置，横置你的英雄→检视你牌库顶牌。若它是技能牌，你可以展示并将之置于你手上。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +586,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3366CC"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF06682D"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00AAFF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDD44FF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -458,7 +639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +656,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1768,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2173,4 +2369,496 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2" s="6">
+        <v>311</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
+      <c r="A3">
+        <v>312</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
+      <c r="A4">
+        <v>313</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
+      <c r="A5">
+        <v>314</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6">
+        <v>315</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7">
+        <v>316</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8">
+        <v>317</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
+      <c r="A9">
+        <v>318</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25">
+      <c r="A10">
+        <v>319</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11">
+        <v>322</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
+      <c r="A2">
+        <v>281</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
+      <c r="A3">
+        <v>282</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
+      <c r="A4">
+        <v>283</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
+      <c r="A5">
+        <v>284</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6">
+        <v>285</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7">
+        <v>286</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8">
+        <v>288</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
+      <c r="A9">
+        <v>289</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25">
+      <c r="A10">
+        <v>290</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/material/card.xlsx
+++ b/trunk/material/card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="21375" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="21375" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dps" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="other" sheetId="4" r:id="rId4"/>
     <sheet name="武器" sheetId="5" r:id="rId5"/>
     <sheet name="防具" sheetId="6" r:id="rId6"/>
+    <sheet name="任务" sheetId="7" r:id="rId7"/>
+    <sheet name="技能" sheetId="8" r:id="rId8"/>
+    <sheet name="英雄" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="255">
   <si>
     <t>费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,13 +529,622 @@
   </si>
   <si>
     <t>②，横置，横置你的英雄→检视你牌库顶牌。若它是技能牌，你可以展示并将之置于你手上。</t>
+  </si>
+  <si>
+    <t>阵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪菲亚兄弟会</t>
+  </si>
+  <si>
+    <t>联盟</t>
+  </si>
+  <si>
+    <t>当你队伍中有四个或以上的盟军时，支付①完成此任务。奖励：抓两张牌</t>
+  </si>
+  <si>
+    <t>黑龙的威胁</t>
+  </si>
+  <si>
+    <t>在任一对手的回合中，支付③完成此任务。奖励：重置你队伍的一个英雄或盟军。</t>
+  </si>
+  <si>
+    <t>失踪的使节</t>
+  </si>
+  <si>
+    <t>在你的回合中，支付④完成此任务。奖励：从你的牌库中搜寻一个盟军牌，展示并将之置于你手上。</t>
+  </si>
+  <si>
+    <t>人马无双</t>
+  </si>
+  <si>
+    <t>部落</t>
+  </si>
+  <si>
+    <t>当对方任一队伍中的盟军数比你队伍的盟军数多时，支付③完成此任务。奖励：抓两张牌。</t>
+  </si>
+  <si>
+    <t>为部落而战</t>
+  </si>
+  <si>
+    <t>支付①完成此任务。奖励：你队伍中的部落盟军本回合攻击时得到+1攻击力。</t>
+  </si>
+  <si>
+    <t>托雷克的突袭</t>
+  </si>
+  <si>
+    <t>如果任一对方英雄本回合曾受到你队伍中的任一盟军造成的伤害时，支付①完成此任务。奖励：抓一张牌</t>
+  </si>
+  <si>
+    <t>中立</t>
+  </si>
+  <si>
+    <t>达隆郡的战斗</t>
+  </si>
+  <si>
+    <t>将你坟墓场中三张盟军牌移出游戏并支付①完成此任务。奖励：抓一张牌。</t>
+  </si>
+  <si>
+    <t>王牌猎人</t>
+  </si>
+  <si>
+    <t>支付②完成此任务。奖励：展示你牌库顶四张牌，将一张被展示的装备牌置于你手上并将其余牌置于你牌库底。</t>
+  </si>
+  <si>
+    <t>蓝叶薯</t>
+  </si>
+  <si>
+    <t>支付②完成此任务。奖励：将你的坟墓场洗入你的牌库。</t>
+  </si>
+  <si>
+    <t>捐献毛料</t>
+  </si>
+  <si>
+    <t>支付①完成此任务。奖励：抓一张牌，然后弃一张牌。</t>
+  </si>
+  <si>
+    <t>在梦中</t>
+  </si>
+  <si>
+    <t>支付⑧完成此任务。奖励：抓三张牌。</t>
+  </si>
+  <si>
+    <t>深入疯狂之口</t>
+  </si>
+  <si>
+    <t>消灭深入疯狂之口完成此任务。奖励：抓一张牌。</t>
+  </si>
+  <si>
+    <t>纠缠根须</t>
+  </si>
+  <si>
+    <t>结附目标盟军，将其横置。持续：被结附的盟军在其操控者重置步骤中不能被重置。</t>
+  </si>
+  <si>
+    <t>治疗之触</t>
+  </si>
+  <si>
+    <t>你的英雄对目标英雄或盟军治疗10点伤害。</t>
+  </si>
+  <si>
+    <t>自然选择</t>
+  </si>
+  <si>
+    <t>选择一项：你的英雄对目标英雄或盟军造成3点自然伤害；或你的英雄对目标英雄或盟军治疗3点伤害。</t>
+  </si>
+  <si>
+    <t>愈合</t>
+  </si>
+  <si>
+    <t>结附目标盟军，你的英雄对其治疗2点伤害。持续：在每个回合结束时，你的英雄对被结附盟军治疗1点伤害。</t>
+  </si>
+  <si>
+    <t>瞄准射击</t>
+  </si>
+  <si>
+    <t>1+X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的英雄对目标英雄或盟军造成X点远程伤害。</t>
+  </si>
+  <si>
+    <t>奥术射击</t>
+  </si>
+  <si>
+    <t>你的英雄对目标英雄或盟军造成1点奥术伤害。装一张牌。</t>
+  </si>
+  <si>
+    <t>死亡标记</t>
+  </si>
+  <si>
+    <t>结附目标对方英雄或盟军。持续：你队伍中的盟军攻击被结附者时得到+1攻击力。</t>
+  </si>
+  <si>
+    <t>多重射击</t>
+  </si>
+  <si>
+    <t>你的英雄对最多单个目标英雄或盟军各造成2点远程伤害。</t>
+  </si>
+  <si>
+    <t>魔法反制</t>
+  </si>
+  <si>
+    <t>打断目标技能。</t>
+  </si>
+  <si>
+    <t>种族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮须波瑞斯</t>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X，翻转亮须波瑞斯→波瑞斯对目标英雄或盟军治疗X点伤害。此能力只能在你的回合中使用。.</t>
+  </si>
+  <si>
+    <t>迪兹莫娜</t>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③，翻转迪兹莫娜，在她身上放置X点伤害→迪兹莫娜对目标盟盟军造成X点暗影伤害。此能力只能在你的回合中使用。</t>
+  </si>
+  <si>
+    <t>艾伦德尔</t>
+  </si>
+  <si>
+    <t>①，翻转艾伦德尔→你的远程武器本回合得到+3攻击力。</t>
+  </si>
+  <si>
+    <t>格拉库斯</t>
+  </si>
+  <si>
+    <t>TANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③，翻转格拉库斯→防止本回合将对目标英雄或盟军接下来的3点伤害。</t>
+  </si>
+  <si>
+    <t>燃霜莉特瑞</t>
+  </si>
+  <si>
+    <t>②，翻转燃霜莉特瑞→目标英雄或盟军本回合不能攻击。</t>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当猪排攻击时，可以横置 目标英雄或兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可被指定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-横置-兵上放置伤害加倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜行，横置-英雄或盟军获得潜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-横置-牺牲一个盟军-消灭目标盟军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程攻击，检视牌库顶的第一张，可放到坟场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害时，抓一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用武器打击少支付1,对方多支付1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜行，盟军对防御中英雄造成伤害，抓一张牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-横置-回到手上-抓一张牌，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置-牌库顶两张进坟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程，隐遁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程，</t>
+  </si>
+  <si>
+    <t>狂暴; 在你的回合结束时，将晨骑者提瑞置于其拥有者手中。</t>
+  </si>
+  <si>
+    <r>
+      <t>当瓦兹鲁克上场时，他对目标英雄造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点火焰伤害</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在你的坟墓场每有一张盟军牌，缝合憎恶得到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击力和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命值。当缝合憎恶被造成伤害时，将你墓地中与伤害同等数量的盟军牌移出游戏。然后，每将一个盟军移出游戏，则在缝合憎恶身上移去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点伤害。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <r>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本轮加一攻击力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少一点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影魔</t>
+  </si>
+  <si>
+    <t>当暗影魔对英雄造成战斗伤害时，重置你的一个资源。当你的回合结束时，将暗影魔置于其拥有者手上</t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牺牲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英雄本轮不可被指定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每个回合的开始时，锤火艾扎对每个英雄各造成1点火焰伤害</t>
+  </si>
+  <si>
+    <r>
+      <t>⑤，消灭乔希亚国王→乔希亚对目标英雄或盟军造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点奥术伤害</t>
+    </r>
+  </si>
+  <si>
+    <t>护卫，潜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替伤害，防止进攻盟军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X,牺牲-消灭费用X的技能或装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-将一张同名牌从坟场到手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牺牲-横置英雄或盟军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有其它盟军也能护卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它盟军+1攻击和+1生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-牺牲-消灭技能或装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-牺牲-消灭费用7以上目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对手盟军上场时，横置它</t>
+  </si>
+  <si>
+    <t>护卫你队伍中的盟军上每有1点伤害则好战者获得+1攻击力</t>
+  </si>
+  <si>
+    <t>狂暴②→战将霍克本回合得到+1攻击力</t>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牺牲，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标英雄或盟军受到保护</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当费用为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的盟军进场时，消灭它。</t>
+    </r>
+  </si>
+  <si>
+    <t>精灵消灭-放置代替物-1-牺牲代替物-对对方所有单位造成一点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置-防止对英雄或盟军1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合结束，对所有盟军治疗所有伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-横置-牺牲-摧毁所有技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置-对敌4点伤害，对我方4点治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当拉奇进场时，可以为目标盟军或英雄治疗两点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当罗特姐妹上场时，你可以消灭目标技能</t>
+  </si>
+  <si>
+    <t>“支付”3消灭雪纳瑟仑&gt;打断目标技能卡。</t>
+  </si>
+  <si>
+    <t>横置-治疗目标所有伤害，并对目标的敌方造成等量伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当拉奇进场时，可以为目标盟军或英雄治疗1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横置-治疗目标所有伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,13 +1228,67 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -634,12 +1300,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,9 +1331,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -673,9 +1340,64 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -967,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1441,6 +2163,514 @@
       </c>
       <c r="G24" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="11" customFormat="1">
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1">
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>3</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1">
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1">
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1">
+      <c r="B32" s="11">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1">
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="20" customFormat="1">
+      <c r="B34" s="20">
+        <v>2</v>
+      </c>
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20">
+        <v>2</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="3" customFormat="1">
+      <c r="B36" s="3">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="21" customFormat="1">
+      <c r="B40" s="21">
+        <v>5</v>
+      </c>
+      <c r="C40" s="21">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21">
+        <v>3</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>227</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="21" customFormat="1">
+      <c r="A42" s="21">
+        <v>235</v>
+      </c>
+      <c r="B42" s="21">
+        <v>6</v>
+      </c>
+      <c r="C42" s="21">
+        <v>3</v>
+      </c>
+      <c r="D42" s="21">
+        <v>4</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1">
+      <c r="A43" s="11">
+        <v>237</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>242</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="11" customFormat="1">
+      <c r="A45" s="11">
+        <v>246</v>
+      </c>
+      <c r="B45" s="11">
+        <v>4</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.25">
+      <c r="A46" s="2">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.25">
+      <c r="A48" s="2">
+        <v>61</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25">
+      <c r="A49">
+        <v>84</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2">
+        <v>111</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>119</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="11" customFormat="1">
+      <c r="A52" s="21">
+        <v>122</v>
+      </c>
+      <c r="B52" s="21">
+        <v>3</v>
+      </c>
+      <c r="C52" s="21">
+        <v>2</v>
+      </c>
+      <c r="D52" s="21">
+        <v>3</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>124</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1451,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1482,74 +2712,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" s="21" customFormat="1">
+      <c r="A2" s="21">
         <v>191</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+    <row r="3" spans="1:7" s="11" customFormat="1">
+      <c r="A3" s="11">
         <v>195</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B3" s="11">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="4" spans="1:7" s="11" customFormat="1">
+      <c r="A4" s="11">
         <v>196</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="5" spans="1:7" s="11" customFormat="1">
+      <c r="A5" s="11">
         <v>198</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1573,43 +2803,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="7" spans="1:7" s="11" customFormat="1">
+      <c r="A7" s="11">
         <v>201</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B7" s="11">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="8" spans="1:7" s="11" customFormat="1">
+      <c r="A8" s="11">
         <v>212</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1633,23 +2863,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
-      <c r="A10" s="3">
+    <row r="10" spans="1:7" s="25" customFormat="1">
+      <c r="A10" s="25">
         <v>214</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="25">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="25">
+        <v>4</v>
+      </c>
+      <c r="D10" s="25">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1673,23 +2903,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12">
+    <row r="12" spans="1:7" s="11" customFormat="1" ht="14.25">
+      <c r="A12" s="11">
         <v>165</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B12" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="26" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1751,6 +2981,315 @@
       </c>
       <c r="G15" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="B16" s="11">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="11" customFormat="1">
+      <c r="B21" s="11">
+        <v>3</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1">
+      <c r="B22" s="2">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="20" customFormat="1">
+      <c r="B23" s="20">
+        <v>5</v>
+      </c>
+      <c r="C23" s="20">
+        <v>4</v>
+      </c>
+      <c r="D23" s="20">
+        <v>5</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="11" customFormat="1">
+      <c r="B25" s="11">
+        <v>5</v>
+      </c>
+      <c r="C25" s="11">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="25" customFormat="1">
+      <c r="B26" s="25">
+        <v>5</v>
+      </c>
+      <c r="C26" s="25">
+        <v>5</v>
+      </c>
+      <c r="D26" s="25">
+        <v>5</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>232</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1">
+      <c r="A28" s="1">
+        <v>234</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.25">
+      <c r="A29">
+        <v>239</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1">
+      <c r="A30" s="1">
+        <v>240</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>241</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="21" customFormat="1">
+      <c r="A32" s="21">
+        <v>110</v>
+      </c>
+      <c r="B32" s="21">
+        <v>1</v>
+      </c>
+      <c r="C32" s="21">
+        <v>2</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.25">
+      <c r="A33">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>121</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1762,10 +3301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1793,23 +3332,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="2" spans="1:7" s="11" customFormat="1">
+      <c r="A2" s="11">
         <v>188</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B2" s="11">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1853,63 +3392,63 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="5" spans="1:7" s="11" customFormat="1">
+      <c r="A5" s="11">
         <v>204</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+    <row r="6" spans="1:7" s="11" customFormat="1">
+      <c r="A6" s="11">
         <v>168</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" s="17" customFormat="1">
+      <c r="A7" s="17">
         <v>170</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C7" s="17">
+        <v>4</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1933,24 +3472,240 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+    <row r="9" spans="1:7" s="11" customFormat="1">
+      <c r="A9" s="11">
         <v>189</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="11" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1">
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1">
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="11" customFormat="1">
+      <c r="B14" s="11">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1">
+      <c r="A15" s="11">
+        <v>230</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="A16" s="11">
+        <v>233</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>238</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>116</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1">
+      <c r="A19" s="11">
+        <v>117</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="11" customFormat="1">
+      <c r="A20" s="11">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>123</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1964,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2030,40 +3785,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+    <row r="4" spans="1:7" s="11" customFormat="1">
+      <c r="A4" s="11">
         <v>202</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B4" s="11">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+    <row r="5" spans="1:7" s="11" customFormat="1">
+      <c r="A5" s="11">
         <v>205</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2104,20 +3859,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="8" spans="1:7" s="11" customFormat="1">
+      <c r="A8" s="11">
         <v>215</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2138,20 +3893,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+    <row r="10" spans="1:7" s="11" customFormat="1">
+      <c r="A10" s="11">
         <v>222</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="11">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2303,34 +4058,34 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" s="17" customFormat="1">
+      <c r="A19" s="17">
         <v>188</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="17">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="C19" s="17">
+        <v>5</v>
+      </c>
+      <c r="D19" s="17">
+        <v>5</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
+    <row r="20" spans="1:7" s="11" customFormat="1">
+      <c r="A20" s="11">
         <v>192</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="11">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>6</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2375,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2410,72 +4165,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A2" s="10">
         <v>311</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="6">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
-      <c r="A3">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A3" s="11">
         <v>312</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
-      <c r="A4">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A4" s="11">
         <v>313</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2483,7 +4238,7 @@
       <c r="A5">
         <v>314</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="6">
@@ -2502,95 +4257,95 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
-      <c r="A6">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A6" s="11">
         <v>315</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
-      <c r="A7">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A7" s="11">
         <v>316</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
-      <c r="A8">
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A8" s="11">
         <v>317</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
-      <c r="A9">
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A9" s="11">
         <v>318</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="10" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2598,7 +4353,7 @@
       <c r="A10">
         <v>319</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="6">
@@ -2624,7 +4379,7 @@
       <c r="A11">
         <v>322</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="6">
@@ -2655,7 +4410,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2693,7 +4448,7 @@
       <c r="A2">
         <v>281</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="6">
@@ -2706,37 +4461,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25">
-      <c r="A3">
+    <row r="3" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A3" s="11">
         <v>282</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="6">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
-      <c r="A4">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A4" s="11">
         <v>283</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2744,7 +4499,7 @@
       <c r="A5">
         <v>284</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2760,101 +4515,644 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A6" s="11">
+        <v>285</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A7" s="11">
+        <v>286</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A8" s="11">
+        <v>288</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A9" s="11">
+        <v>289</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="14.25">
+      <c r="A10" s="11">
+        <v>290</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A2" s="11">
+        <v>340</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3">
+        <v>341</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4">
+        <v>342</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A5" s="11">
+        <v>343</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A6" s="11">
+        <v>344</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A7" s="11">
+        <v>345</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A8" s="11">
+        <v>347</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A9" s="11">
+        <v>348</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A10" s="11">
+        <v>349</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A11" s="11">
+        <v>351</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A12" s="11">
+        <v>352</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" ht="14.25">
+      <c r="A13" s="11">
+        <v>353</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6">
-        <v>285</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25">
+        <v>32</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7">
-        <v>286</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8">
-        <v>288</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25">
+      <c r="D8" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9">
-        <v>289</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25">
+        <v>41</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10">
-        <v>290</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>122</v>
+        <v>51</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="javascript:void(0)"/>
+    <hyperlink ref="B3" r:id="rId2" display="javascript:void(0)"/>
+    <hyperlink ref="B4" r:id="rId3" display="javascript:void(0)"/>
+    <hyperlink ref="B5" r:id="rId4" display="javascript:void(0)"/>
+    <hyperlink ref="B6" r:id="rId5" display="javascript:void(0)"/>
+    <hyperlink ref="B7" r:id="rId6" display="javascript:void(0)"/>
+    <hyperlink ref="B8" r:id="rId7" display="javascript:void(0)"/>
+    <hyperlink ref="B9" r:id="rId8" display="javascript:void(0)"/>
+    <hyperlink ref="B10" r:id="rId9" display="javascript:void(0)"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/material/card.xlsx
+++ b/trunk/material/card.xlsx
@@ -1144,7 +1144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,8 +1270,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF00B050"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1309,7 +1317,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,12 +1372,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1393,6 +1395,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1692,7 +1703,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2183,6 +2194,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" s="11" customFormat="1">
+      <c r="A26" s="11">
+        <v>21001</v>
+      </c>
       <c r="B26" s="11">
         <v>1</v>
       </c>
@@ -2197,6 +2211,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="11" customFormat="1">
+      <c r="A27" s="11">
+        <v>21002</v>
+      </c>
       <c r="B27" s="11">
         <v>2</v>
       </c>
@@ -2228,6 +2245,9 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="11" customFormat="1">
+      <c r="A29" s="11">
+        <v>21003</v>
+      </c>
       <c r="B29" s="11">
         <v>2</v>
       </c>
@@ -2276,6 +2296,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="11" customFormat="1">
+      <c r="A32" s="11">
+        <v>21004</v>
+      </c>
       <c r="B32" s="11">
         <v>2</v>
       </c>
@@ -2309,20 +2332,23 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="20" customFormat="1">
-      <c r="B34" s="20">
-        <v>2</v>
-      </c>
-      <c r="C34" s="20">
-        <v>1</v>
-      </c>
-      <c r="D34" s="20">
-        <v>2</v>
-      </c>
-      <c r="F34" s="20" t="s">
+    <row r="34" spans="1:8" s="18" customFormat="1">
+      <c r="A34" s="18">
+        <v>20005</v>
+      </c>
+      <c r="B34" s="18">
+        <v>2</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="18" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2411,20 +2437,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="21" customFormat="1">
-      <c r="B40" s="21">
-        <v>5</v>
-      </c>
-      <c r="C40" s="21">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21">
-        <v>3</v>
-      </c>
-      <c r="F40" s="21" t="s">
+    <row r="40" spans="1:8" s="19" customFormat="1">
+      <c r="A40" s="19">
+        <v>21006</v>
+      </c>
+      <c r="B40" s="19">
+        <v>5</v>
+      </c>
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3</v>
+      </c>
+      <c r="F40" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="19" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2442,23 +2471,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="21" customFormat="1">
-      <c r="A42" s="21">
-        <v>235</v>
-      </c>
-      <c r="B42" s="21">
+    <row r="42" spans="1:8" s="19" customFormat="1">
+      <c r="A42" s="19">
+        <v>21007</v>
+      </c>
+      <c r="B42" s="19">
         <v>6</v>
       </c>
-      <c r="C42" s="21">
-        <v>3</v>
-      </c>
-      <c r="D42" s="21">
-        <v>4</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="C42" s="19">
+        <v>3</v>
+      </c>
+      <c r="D42" s="19">
+        <v>4</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="19" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2498,13 +2527,13 @@
       <c r="F44" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="11" customFormat="1">
       <c r="A45" s="11">
-        <v>246</v>
+        <v>21008</v>
       </c>
       <c r="B45" s="11">
         <v>4</v>
@@ -2515,7 +2544,7 @@
       <c r="D45" s="11">
         <v>0</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="21" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2575,7 +2604,7 @@
       <c r="F48" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="20" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2634,16 +2663,16 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="11" customFormat="1">
-      <c r="A52" s="21">
-        <v>122</v>
-      </c>
-      <c r="B52" s="21">
-        <v>3</v>
-      </c>
-      <c r="C52" s="21">
-        <v>2</v>
-      </c>
-      <c r="D52" s="21">
+      <c r="A52" s="19">
+        <v>21009</v>
+      </c>
+      <c r="B52" s="19">
+        <v>3</v>
+      </c>
+      <c r="C52" s="19">
+        <v>2</v>
+      </c>
+      <c r="D52" s="19">
         <v>3</v>
       </c>
       <c r="F52" s="11" t="s">
@@ -2669,7 +2698,7 @@
       <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="20" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2683,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2712,29 +2741,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1">
-      <c r="A2" s="21">
-        <v>191</v>
-      </c>
-      <c r="B2" s="21">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21" t="s">
+    <row r="2" spans="1:7" s="19" customFormat="1">
+      <c r="A2" s="19">
+        <v>22001</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="11" customFormat="1">
       <c r="A3" s="11">
-        <v>195</v>
+        <v>22002</v>
       </c>
       <c r="B3" s="11">
         <v>4</v>
@@ -2751,7 +2780,7 @@
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1">
       <c r="A4" s="11">
-        <v>196</v>
+        <v>22003</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -2768,7 +2797,7 @@
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1">
       <c r="A5" s="11">
-        <v>198</v>
+        <v>22004</v>
       </c>
       <c r="B5" s="11">
         <v>2</v>
@@ -2805,7 +2834,7 @@
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1">
       <c r="A7" s="11">
-        <v>201</v>
+        <v>22005</v>
       </c>
       <c r="B7" s="11">
         <v>3</v>
@@ -2825,7 +2854,7 @@
     </row>
     <row r="8" spans="1:7" s="11" customFormat="1">
       <c r="A8" s="11">
-        <v>212</v>
+        <v>22006</v>
       </c>
       <c r="B8" s="11">
         <v>2</v>
@@ -2863,23 +2892,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="25" customFormat="1">
-      <c r="A10" s="25">
-        <v>214</v>
-      </c>
-      <c r="B10" s="25">
+    <row r="10" spans="1:7" s="23" customFormat="1">
+      <c r="A10" s="23">
+        <v>22007</v>
+      </c>
+      <c r="B10" s="23">
         <v>8</v>
       </c>
-      <c r="C10" s="25">
-        <v>4</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="C10" s="23">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2905,7 +2934,7 @@
     </row>
     <row r="12" spans="1:7" s="11" customFormat="1" ht="14.25">
       <c r="A12" s="11">
-        <v>165</v>
+        <v>22008</v>
       </c>
       <c r="B12" s="11">
         <v>4</v>
@@ -2919,7 +2948,7 @@
       <c r="F12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="24" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2984,6 +3013,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1">
+      <c r="A16" s="11">
+        <v>22009</v>
+      </c>
       <c r="B16" s="11">
         <v>6</v>
       </c>
@@ -3054,6 +3086,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="11" customFormat="1">
+      <c r="A21" s="11">
+        <v>22010</v>
+      </c>
       <c r="B21" s="11">
         <v>3</v>
       </c>
@@ -3087,20 +3122,23 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="20" customFormat="1">
-      <c r="B23" s="20">
-        <v>5</v>
-      </c>
-      <c r="C23" s="20">
-        <v>4</v>
-      </c>
-      <c r="D23" s="20">
-        <v>5</v>
-      </c>
-      <c r="F23" s="20" t="s">
+    <row r="23" spans="1:7" s="18" customFormat="1">
+      <c r="A23" s="25">
+        <v>22011</v>
+      </c>
+      <c r="B23" s="18">
+        <v>5</v>
+      </c>
+      <c r="C23" s="18">
+        <v>4</v>
+      </c>
+      <c r="D23" s="18">
+        <v>5</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="18" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3119,6 +3157,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="11" customFormat="1">
+      <c r="A25" s="11">
+        <v>22012</v>
+      </c>
       <c r="B25" s="11">
         <v>5</v>
       </c>
@@ -3135,17 +3176,20 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="25" customFormat="1">
-      <c r="B26" s="25">
-        <v>5</v>
-      </c>
-      <c r="C26" s="25">
-        <v>5</v>
-      </c>
-      <c r="D26" s="25">
-        <v>5</v>
-      </c>
-      <c r="G26" s="25" t="s">
+    <row r="26" spans="1:7" s="23" customFormat="1">
+      <c r="A26" s="23">
+        <v>22013</v>
+      </c>
+      <c r="B26" s="23">
+        <v>5</v>
+      </c>
+      <c r="C26" s="23">
+        <v>5</v>
+      </c>
+      <c r="D26" s="23">
+        <v>5</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3179,7 +3223,7 @@
       <c r="F28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="22" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3235,23 +3279,23 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="21" customFormat="1">
-      <c r="A32" s="21">
-        <v>110</v>
-      </c>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="21">
-        <v>2</v>
-      </c>
-      <c r="D32" s="21">
-        <v>1</v>
-      </c>
-      <c r="F32" s="21" t="s">
+    <row r="32" spans="1:7" s="25" customFormat="1">
+      <c r="A32" s="25">
+        <v>22014</v>
+      </c>
+      <c r="B32" s="25">
+        <v>1</v>
+      </c>
+      <c r="C32" s="25">
+        <v>2</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3288,7 +3332,7 @@
       <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="20" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3304,7 +3348,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3334,7 +3378,7 @@
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1">
       <c r="A2" s="11">
-        <v>188</v>
+        <v>23001</v>
       </c>
       <c r="B2" s="11">
         <v>4</v>
@@ -3394,7 +3438,7 @@
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1">
       <c r="A5" s="11">
-        <v>204</v>
+        <v>23002</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
@@ -3414,7 +3458,7 @@
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1">
       <c r="A6" s="11">
-        <v>168</v>
+        <v>23003</v>
       </c>
       <c r="B6" s="11">
         <v>3</v>
@@ -3434,7 +3478,7 @@
     </row>
     <row r="7" spans="1:7" s="17" customFormat="1">
       <c r="A7" s="17">
-        <v>170</v>
+        <v>23004</v>
       </c>
       <c r="B7" s="17">
         <v>6</v>
@@ -3474,7 +3518,7 @@
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1">
       <c r="A9" s="11">
-        <v>189</v>
+        <v>23005</v>
       </c>
       <c r="B9" s="11">
         <v>2</v>
@@ -3507,6 +3551,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="11" customFormat="1">
+      <c r="A11" s="11">
+        <v>23006</v>
+      </c>
       <c r="B11" s="11">
         <v>1</v>
       </c>
@@ -3555,6 +3602,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="11" customFormat="1">
+      <c r="A14" s="11">
+        <v>23007</v>
+      </c>
       <c r="B14" s="11">
         <v>6</v>
       </c>
@@ -3573,7 +3623,7 @@
     </row>
     <row r="15" spans="1:7" s="11" customFormat="1">
       <c r="A15" s="11">
-        <v>230</v>
+        <v>23008</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -3593,7 +3643,7 @@
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1">
       <c r="A16" s="11">
-        <v>233</v>
+        <v>23009</v>
       </c>
       <c r="B16" s="11">
         <v>5</v>
@@ -3653,7 +3703,7 @@
     </row>
     <row r="19" spans="1:7" s="11" customFormat="1">
       <c r="A19" s="11">
-        <v>117</v>
+        <v>23010</v>
       </c>
       <c r="B19" s="11">
         <v>2</v>
@@ -3673,7 +3723,7 @@
     </row>
     <row r="20" spans="1:7" s="11" customFormat="1">
       <c r="A20" s="11">
-        <v>120</v>
+        <v>23011</v>
       </c>
       <c r="B20" s="11">
         <v>2</v>
@@ -3720,7 +3770,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3787,7 +3837,7 @@
     </row>
     <row r="4" spans="1:7" s="11" customFormat="1">
       <c r="A4" s="11">
-        <v>202</v>
+        <v>24001</v>
       </c>
       <c r="B4" s="11">
         <v>5</v>
@@ -3807,7 +3857,7 @@
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1">
       <c r="A5" s="11">
-        <v>205</v>
+        <v>24002</v>
       </c>
       <c r="B5" s="11">
         <v>2</v>
@@ -3861,7 +3911,7 @@
     </row>
     <row r="8" spans="1:7" s="11" customFormat="1">
       <c r="A8" s="11">
-        <v>215</v>
+        <v>24003</v>
       </c>
       <c r="B8" s="11">
         <v>3</v>
@@ -3895,7 +3945,7 @@
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1">
       <c r="A10" s="11">
-        <v>222</v>
+        <v>24004</v>
       </c>
       <c r="B10" s="11">
         <v>14</v>
@@ -4060,7 +4110,7 @@
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1">
       <c r="A19" s="17">
-        <v>188</v>
+        <v>24005</v>
       </c>
       <c r="B19" s="17">
         <v>7</v>
@@ -4077,7 +4127,7 @@
     </row>
     <row r="20" spans="1:7" s="11" customFormat="1">
       <c r="A20" s="11">
-        <v>192</v>
+        <v>24006</v>
       </c>
       <c r="B20" s="11">
         <v>7</v>
@@ -4131,7 +4181,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4167,7 +4217,7 @@
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A2" s="10">
-        <v>311</v>
+        <v>30001</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>95</v>
@@ -4193,7 +4243,7 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A3" s="11">
-        <v>312</v>
+        <v>30002</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>96</v>
@@ -4216,7 +4266,7 @@
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A4" s="11">
-        <v>313</v>
+        <v>30003</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>98</v>
@@ -4259,7 +4309,7 @@
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A6" s="11">
-        <v>315</v>
+        <v>30004</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>102</v>
@@ -4282,7 +4332,7 @@
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A7" s="11">
-        <v>316</v>
+        <v>30005</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>104</v>
@@ -4305,7 +4355,7 @@
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A8" s="11">
-        <v>317</v>
+        <v>30006</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>131</v>
@@ -4328,7 +4378,7 @@
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A9" s="11">
-        <v>318</v>
+        <v>30007</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>133</v>
@@ -4410,7 +4460,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4463,7 +4513,7 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A3" s="11">
-        <v>282</v>
+        <v>31001</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>109</v>
@@ -4480,7 +4530,7 @@
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A4" s="11">
-        <v>283</v>
+        <v>31002</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>111</v>
@@ -4517,7 +4567,7 @@
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A6" s="11">
-        <v>285</v>
+        <v>31003</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>120</v>
@@ -4537,7 +4587,7 @@
     </row>
     <row r="7" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A7" s="11">
-        <v>286</v>
+        <v>31004</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>123</v>
@@ -4557,7 +4607,7 @@
     </row>
     <row r="8" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A8" s="11">
-        <v>288</v>
+        <v>31005</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>125</v>
@@ -4577,7 +4627,7 @@
     </row>
     <row r="9" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A9" s="11">
-        <v>289</v>
+        <v>31006</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>127</v>
@@ -4597,7 +4647,7 @@
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" ht="14.25">
       <c r="A10" s="11">
-        <v>290</v>
+        <v>31007</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>129</v>
@@ -4623,7 +4673,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4648,7 +4698,7 @@
     </row>
     <row r="2" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A2" s="11">
-        <v>340</v>
+        <v>40001</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>141</v>
@@ -4690,7 +4740,7 @@
     </row>
     <row r="5" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A5" s="11">
-        <v>343</v>
+        <v>40002</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>148</v>
@@ -4704,7 +4754,7 @@
     </row>
     <row r="6" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A6" s="11">
-        <v>344</v>
+        <v>40003</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>151</v>
@@ -4718,7 +4768,7 @@
     </row>
     <row r="7" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A7" s="11">
-        <v>345</v>
+        <v>40004</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>153</v>
@@ -4732,7 +4782,7 @@
     </row>
     <row r="8" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A8" s="11">
-        <v>347</v>
+        <v>40005</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>156</v>
@@ -4746,7 +4796,7 @@
     </row>
     <row r="9" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A9" s="11">
-        <v>348</v>
+        <v>40006</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>158</v>
@@ -4760,7 +4810,7 @@
     </row>
     <row r="10" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A10" s="11">
-        <v>349</v>
+        <v>40007</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>160</v>
@@ -4774,7 +4824,7 @@
     </row>
     <row r="11" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A11" s="11">
-        <v>351</v>
+        <v>40008</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>162</v>
@@ -4788,7 +4838,7 @@
     </row>
     <row r="12" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A12" s="11">
-        <v>352</v>
+        <v>40009</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>164</v>
@@ -4802,7 +4852,7 @@
     </row>
     <row r="13" spans="1:4" s="11" customFormat="1" ht="14.25">
       <c r="A13" s="11">
-        <v>353</v>
+        <v>40010</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>166</v>
@@ -4826,7 +4876,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4851,175 +4901,175 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A2" s="11">
+        <v>50001</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A3" s="11">
+        <v>50002</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="6">
-        <v>3</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4">
-        <v>27</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A4" s="11">
+        <v>50003</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5">
-        <v>30</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A5" s="11">
+        <v>50004</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6">
-        <v>32</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A6" s="11">
+        <v>50005</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7">
-        <v>33</v>
-      </c>
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A7" s="11">
+        <v>50006</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="A8">
-        <v>39</v>
-      </c>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A8" s="11">
+        <v>50007</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="A9">
-        <v>41</v>
-      </c>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A9" s="11">
+        <v>50008</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="A10">
-        <v>51</v>
-      </c>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A10" s="11">
+        <v>50009</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5045,7 +5095,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5070,88 +5120,88 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A2" s="11">
+        <v>10001</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A3" s="11">
+        <v>10002</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A4" s="11">
+        <v>10003</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>28</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A5" s="11">
+        <v>10004</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <v>29</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="14.25">
+      <c r="A6" s="11">
+        <v>10005</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="11">
         <v>25</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>200</v>
       </c>
     </row>

--- a/trunk/material/card.xlsx
+++ b/trunk/material/card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="21375" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="21375" windowHeight="7935" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="dps" sheetId="1" r:id="rId1"/>
@@ -3769,7 +3769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -5094,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="14.25">
       <c r="A2" s="11">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>188</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="3" spans="1:6" s="11" customFormat="1" ht="14.25">
       <c r="A3" s="11">
-        <v>10002</v>
+        <v>20002</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>191</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="4" spans="1:6" s="11" customFormat="1" ht="14.25">
       <c r="A4" s="11">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>194</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1" ht="14.25">
       <c r="A5" s="11">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>196</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="14.25">
       <c r="A6" s="11">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>199</v>
